--- a/Data Files/Source/SQA12-Registrar Denuncia Jurídica-V2.0.xlsx
+++ b/Data Files/Source/SQA12-Registrar Denuncia Jurídica-V2.0.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="60">
   <si>
     <t>ID Caso de Prueba</t>
   </si>
@@ -37,33 +37,36 @@
     <t>Correo Electronico</t>
   </si>
   <si>
-    <t>¿Ha sido denunciado esto antes?</t>
+    <t>¿El hecho delictivo fue denunciado antes?</t>
   </si>
   <si>
     <t>¿En que lugar fue denunciado?</t>
   </si>
   <si>
-    <t>Fecha de esa denuncia</t>
-  </si>
-  <si>
-    <t>NombresCompletos</t>
-  </si>
-  <si>
-    <t>Puestos de trabajo</t>
+    <t>Fecha de la denuncia</t>
   </si>
   <si>
     <t>Lugar de trabajo del denunciado</t>
   </si>
   <si>
+    <t>Nombres Completos</t>
+  </si>
+  <si>
+    <t>Puesto de trabajo</t>
+  </si>
+  <si>
+    <t>Detalle de lo sucedido</t>
+  </si>
+  <si>
     <t>Fecha de los hechos</t>
   </si>
   <si>
-    <t>Detalle de lo sucedido</t>
-  </si>
-  <si>
     <t>Contenido de las pruebas</t>
   </si>
   <si>
+    <t>Estoy de acuerdo</t>
+  </si>
+  <si>
     <t>SQA12-16</t>
   </si>
   <si>
@@ -76,7 +79,7 @@
     <t>Melinna Rojas</t>
   </si>
   <si>
-    <t>atencion.quipu@unmsm.edu.pe</t>
+    <t>atencion1234@unmsm.edu.pe</t>
   </si>
   <si>
     <t>Si</t>
@@ -160,7 +163,7 @@
     <t>SQA12-77</t>
   </si>
   <si>
-    <t>atencion.quipu.unmsm.edu.pe</t>
+    <t>atencion1234unmsm.edu.pe</t>
   </si>
   <si>
     <t>SQA12-69</t>
@@ -272,19 +275,20 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
+    <col customWidth="1" min="1" max="1" width="17.0"/>
     <col customWidth="1" min="3" max="3" width="17.86"/>
     <col customWidth="1" min="4" max="4" width="18.14"/>
     <col customWidth="1" min="5" max="5" width="24.43"/>
     <col customWidth="1" min="6" max="6" width="18.71"/>
     <col customWidth="1" min="7" max="7" width="18.43"/>
     <col customWidth="1" min="8" max="8" width="27.43"/>
-    <col customWidth="1" min="9" max="9" width="27.71"/>
+    <col customWidth="1" min="9" max="9" width="36.0"/>
     <col customWidth="1" min="10" max="11" width="31.86"/>
-    <col customWidth="1" min="12" max="12" width="18.14"/>
-    <col customWidth="1" min="13" max="13" width="17.86"/>
-    <col customWidth="1" min="14" max="14" width="27.71"/>
-    <col customWidth="1" min="15" max="15" width="18.29"/>
-    <col customWidth="1" min="16" max="16" width="89.57"/>
+    <col customWidth="1" min="12" max="12" width="27.71"/>
+    <col customWidth="1" min="13" max="13" width="18.14"/>
+    <col customWidth="1" min="14" max="14" width="17.86"/>
+    <col customWidth="1" min="15" max="15" width="89.57"/>
+    <col customWidth="1" min="16" max="16" width="18.29"/>
     <col customWidth="1" min="17" max="17" width="21.71"/>
   </cols>
   <sheetData>
@@ -322,34 +326,37 @@
       <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2" s="1">
         <v>2.0324321654E10</v>
@@ -358,81 +365,81 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3">
         <v>43513.0</v>
       </c>
-      <c r="N2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O2" s="3"/>
-      <c r="P2" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P2" s="3"/>
       <c r="R2" s="4"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" s="1">
         <v>2.0324321654E10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" s="1">
         <v>9.40970099E8</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K3" s="3">
         <v>43514.0</v>
       </c>
-      <c r="N3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="3"/>
-      <c r="P3" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="3"/>
       <c r="R3" s="4"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D4" s="1">
         <v>2.0324321654E10</v>
@@ -441,38 +448,38 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K4" s="3">
         <v>43515.0</v>
       </c>
-      <c r="N4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" s="3"/>
-      <c r="P4" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P4" s="3"/>
       <c r="R4" s="4"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5" s="1">
         <v>2.0324321654E10</v>
@@ -481,41 +488,41 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K5" s="3">
         <v>43516.0</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O5" s="3"/>
-      <c r="P5" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P5" s="3"/>
       <c r="R5" s="4"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1">
         <v>2.0324321654E10</v>
@@ -524,41 +531,41 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K6" s="3">
         <v>43517.0</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="N6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="3"/>
-      <c r="P6" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P6" s="3"/>
       <c r="R6" s="4"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1">
         <v>2.0324321654E10</v>
@@ -567,41 +574,41 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K7" s="3">
         <v>43518.0</v>
       </c>
-      <c r="M7" s="1" t="s">
-        <v>34</v>
+      <c r="L7" s="1" t="s">
+        <v>25</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="3"/>
-      <c r="P7" s="1" t="s">
-        <v>25</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P7" s="3"/>
       <c r="R7" s="4"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="1">
         <v>2.0324321654E10</v>
@@ -610,40 +617,40 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K8" s="3">
         <v>43519.0</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="3">
+      <c r="L8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P8" s="3">
         <v>43547.0</v>
-      </c>
-      <c r="P8" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="R8" s="4"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D9" s="1">
         <v>2.0324321654E10</v>
@@ -652,41 +659,41 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K9" s="3">
         <v>43520.0</v>
       </c>
-      <c r="N9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="3"/>
-      <c r="P9" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O9" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="3"/>
       <c r="Q9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="R9" s="4"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D10" s="1">
         <v>2.0324321654E10</v>
@@ -695,35 +702,35 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I10" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K10" s="3">
         <v>43521.0</v>
       </c>
-      <c r="N10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O10" s="3"/>
-      <c r="P10" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L10" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P10" s="3"/>
       <c r="R10" s="4"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D11" s="1">
         <v>2.0324321654E10</v>
@@ -732,75 +739,75 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I11" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K11" s="3">
         <v>43522.0</v>
       </c>
-      <c r="N11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O11" s="3"/>
-      <c r="P11" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L11" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P11" s="3"/>
       <c r="R11" s="4"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F12" s="1">
         <v>9.40970099E8</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I12" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K12" s="3">
         <v>43523.0</v>
       </c>
-      <c r="N12" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O12" s="3"/>
-      <c r="P12" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" s="3"/>
       <c r="R12" s="4"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D13" s="1">
         <v>2032432.0</v>
@@ -809,38 +816,38 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K13" s="3">
         <v>43524.0</v>
       </c>
-      <c r="N13" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O13" s="3"/>
-      <c r="P13" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P13" s="3"/>
       <c r="R13" s="4"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D14" s="1">
         <v>2.032432165412E12</v>
@@ -849,75 +856,75 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K14" s="3">
         <v>43525.0</v>
       </c>
-      <c r="N14" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O14" s="3"/>
-      <c r="P14" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L14" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P14" s="3"/>
       <c r="R14" s="4"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D15" s="1">
         <v>2.0324321654E10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I15" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K15" s="3">
         <v>43526.0</v>
       </c>
-      <c r="N15" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O15" s="3"/>
-      <c r="P15" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P15" s="3"/>
       <c r="R15" s="4"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" s="1">
         <v>2.0324321654E10</v>
@@ -926,38 +933,38 @@
         <v>940970.0</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I16" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K16" s="3">
         <v>43527.0</v>
       </c>
-      <c r="N16" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O16" s="3"/>
-      <c r="P16" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L16" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P16" s="3"/>
       <c r="R16" s="4"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D17" s="1">
         <v>2.0324321654E10</v>
@@ -966,38 +973,38 @@
         <v>9.4097009912E10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K17" s="3">
         <v>43528.0</v>
       </c>
-      <c r="N17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O17" s="3"/>
-      <c r="P17" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L17" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P17" s="3"/>
       <c r="R17" s="4"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D18" s="1">
         <v>2.0324321654E10</v>
@@ -1006,35 +1013,35 @@
         <v>9.40970099E8</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="I18" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K18" s="3">
         <v>43529.0</v>
       </c>
-      <c r="N18" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O18" s="3"/>
-      <c r="P18" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P18" s="3"/>
       <c r="R18" s="4"/>
     </row>
     <row r="19">
       <c r="A19" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
         <v>2.0324321654E10</v>
@@ -1043,32 +1050,32 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K19" s="3">
         <v>43530.0</v>
       </c>
-      <c r="N19" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="3"/>
-      <c r="P19" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L19" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P19" s="3"/>
       <c r="R19" s="4"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1">
         <v>2.0324321654E10</v>
@@ -1077,35 +1084,35 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H20" s="5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K20" s="3">
         <v>43531.0</v>
       </c>
-      <c r="N20" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O20" s="3"/>
-      <c r="P20" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P20" s="3"/>
       <c r="R20" s="4"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1">
         <v>2.0324321654E10</v>
@@ -1114,35 +1121,35 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K21" s="3">
         <v>43532.0</v>
       </c>
-      <c r="N21" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O21" s="3"/>
-      <c r="P21" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L21" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P21" s="3"/>
       <c r="R21" s="4"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1">
         <v>2.0324321654E10</v>
@@ -1151,32 +1158,32 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K22" s="3">
         <v>43533.0</v>
       </c>
-      <c r="N22" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O22" s="3"/>
-      <c r="P22" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L22" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P22" s="3"/>
       <c r="R22" s="4"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1">
         <v>2.0324321654E10</v>
@@ -1185,33 +1192,33 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K23" s="3"/>
-      <c r="N23" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O23" s="3"/>
-      <c r="P23" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L23" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P23" s="3"/>
       <c r="R23" s="4"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1">
         <v>2.0324321654E10</v>
@@ -1220,32 +1227,32 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K24" s="3">
         <v>43535.0</v>
       </c>
-      <c r="O24" s="3"/>
-      <c r="P24" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="O24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P24" s="3"/>
       <c r="R24" s="4"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1">
         <v>2.0324321654E10</v>
@@ -1254,32 +1261,32 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K25" s="3">
         <v>43536.0</v>
       </c>
-      <c r="N25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O25" s="3"/>
+      <c r="L25" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="P25" s="3"/>
       <c r="R25" s="4"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1">
         <v>2.0324321654E10</v>
@@ -1288,109 +1295,109 @@
         <v>9.40970099E8</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K26" s="3">
         <v>43537.0</v>
       </c>
-      <c r="N26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="3"/>
-      <c r="P26" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L26" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P26" s="3"/>
       <c r="R26" s="4"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1">
         <v>2.0324321645E10</v>
       </c>
       <c r="F27" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K27" s="3">
         <v>43538.0</v>
       </c>
-      <c r="N27" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="O27" s="3"/>
-      <c r="P27" s="1" t="s">
-        <v>25</v>
-      </c>
+      <c r="L27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P27" s="3"/>
     </row>
     <row r="28">
       <c r="K28" s="3"/>
-      <c r="O28" s="3"/>
+      <c r="P28" s="3"/>
     </row>
     <row r="29">
       <c r="C29" s="7"/>
       <c r="D29" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="K29" s="3"/>
-      <c r="O29" s="3"/>
+      <c r="P29" s="3"/>
     </row>
     <row r="30">
       <c r="K30" s="3"/>
-      <c r="O30" s="3"/>
+      <c r="P30" s="3"/>
     </row>
     <row r="31">
       <c r="K31" s="3"/>
-      <c r="O31" s="3"/>
+      <c r="P31" s="3"/>
     </row>
     <row r="32">
       <c r="K32" s="3"/>
-      <c r="O32" s="3"/>
+      <c r="P32" s="3"/>
     </row>
     <row r="33">
       <c r="K33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="P33" s="3"/>
     </row>
     <row r="34">
       <c r="K34" s="3"/>
-      <c r="O34" s="3"/>
+      <c r="P34" s="3"/>
     </row>
     <row r="35">
       <c r="K35" s="3"/>
-      <c r="O35" s="3"/>
+      <c r="P35" s="3"/>
     </row>
     <row r="36">
       <c r="K36" s="3"/>
-      <c r="O36" s="3"/>
+      <c r="P36" s="3"/>
     </row>
     <row r="37">
       <c r="K37" s="3"/>
-      <c r="O37" s="3"/>
+      <c r="P37" s="3"/>
     </row>
     <row r="38">
       <c r="K38" s="3"/>
-      <c r="O38" s="3"/>
+      <c r="P38" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
